--- a/Mathe_Uebungen/Kinematik.xlsx
+++ b/Mathe_Uebungen/Kinematik.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\Mathe_Uebungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0635A8A-E96C-4B0D-8746-11D70CF0AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AAE4ED-15C1-45FD-A2A9-937A0BCCF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{260D8698-9CEF-40DD-B0B2-6772DBD49A69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Konstant beschleunigte Bewegung</t>
   </si>
@@ -61,12 +61,24 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>g=</t>
+  </si>
+  <si>
+    <t>Freier Fall</t>
+  </si>
+  <si>
+    <t>v0 =</t>
+  </si>
+  <si>
+    <t>[ m / s ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +109,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -112,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -135,11 +170,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -155,6 +227,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1186,15 +1274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>701674</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>283321</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>730249</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>311896</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1219,6 +1307,279 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1752852" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074D18D2-60EE-459E-3B4E-A7BE41AAD9A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319000" y="861786"/>
+          <a:ext cx="1752852" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>v = a * t + vo</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2965620" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94062017-179F-F3A3-7967-A2B20BA9D908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12337143" y="1841500"/>
+          <a:ext cx="2965620" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>s = a/2 * t^2 + v0*t</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>399722</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6497612" cy="3160609"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45642EED-C99E-4C6F-AC06-84FEEEB93515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1923722" y="7075715"/>
+          <a:ext cx="6497612" cy="3160609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> lange dauert der Sprung vom 5m Turm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>v0=0m/s</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>a=g=9.81m/s^2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>s=5m</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>s = a/2 * t^2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-CH" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; t = sqrt(2*s/g)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1519,13 +1880,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B790548-A466-4306-AE9E-08EAB0DA5072}">
-  <dimension ref="B2:O10"/>
+  <dimension ref="B2:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="18" max="18" width="12.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -1699,6 +2064,382 @@
       <c r="O10" s="8">
         <f t="shared" si="1"/>
         <v>1760</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="3:18" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="P20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>9.81</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="3:18" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>12</v>
+      </c>
+      <c r="Q34">
+        <v>13</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>15</v>
+      </c>
+      <c r="T34">
+        <v>16</v>
+      </c>
+      <c r="U34">
+        <v>17</v>
+      </c>
+      <c r="V34">
+        <v>18</v>
+      </c>
+      <c r="W34">
+        <v>19</v>
+      </c>
+      <c r="X34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <f>(($Q$20/2)*D34*D34) + ($F$32 * D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:X35" si="2">(($Q$20/2)*E34*E34) + ($F$32 * E34)</f>
+        <v>4.9050000000000002</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>19.62</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>44.144999999999996</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>78.48</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>122.62500000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>176.57999999999998</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>240.345</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>313.92</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>397.30500000000001</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>490.50000000000006</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>593.50500000000011</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>706.31999999999994</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>828.94500000000005</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>961.38</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>1103.625</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>1255.68</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>1417.5450000000001</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>1589.22</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>1770.7050000000002</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="2"/>
+        <v>1962.0000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="4:30" x14ac:dyDescent="0.35">
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3</v>
+      </c>
+      <c r="I58" s="4">
+        <v>4</v>
+      </c>
+      <c r="J58" s="4">
+        <v>5</v>
+      </c>
+      <c r="K58" s="4">
+        <v>6</v>
+      </c>
+      <c r="L58" s="4">
+        <v>7</v>
+      </c>
+      <c r="M58" s="4">
+        <v>8</v>
+      </c>
+      <c r="N58" s="4">
+        <v>9</v>
+      </c>
+      <c r="O58" s="4">
+        <v>10</v>
+      </c>
+      <c r="P58" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>12</v>
+      </c>
+      <c r="R58" s="4">
+        <v>13</v>
+      </c>
+      <c r="S58" s="4">
+        <v>14</v>
+      </c>
+      <c r="T58" s="4">
+        <v>15</v>
+      </c>
+      <c r="U58" s="4">
+        <v>16</v>
+      </c>
+      <c r="V58" s="4">
+        <v>17</v>
+      </c>
+      <c r="W58" s="4">
+        <v>18</v>
+      </c>
+      <c r="X58" s="4">
+        <v>19</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>21</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>22</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>23</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>24</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="4:30" x14ac:dyDescent="0.35">
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="16">
+        <f>SQRT(2*E58/$Q$20)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="16">
+        <f t="shared" ref="F59:V59" si="3">SQRT(2*F58/$Q$20)</f>
+        <v>0.45152364098573089</v>
+      </c>
+      <c r="G59" s="16">
+        <f t="shared" si="3"/>
+        <v>0.63855085681410095</v>
+      </c>
+      <c r="H59" s="16">
+        <f t="shared" si="3"/>
+        <v>0.78206188700577506</v>
+      </c>
+      <c r="I59" s="16">
+        <f t="shared" si="3"/>
+        <v>0.90304728197146178</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.0096375546923044</v>
+      </c>
+      <c r="K59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.106002527218662</v>
+      </c>
+      <c r="L59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.194619265114655</v>
+      </c>
+      <c r="M59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.2771017136282019</v>
+      </c>
+      <c r="N59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.3545709229571927</v>
+      </c>
+      <c r="O59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.4278431229270645</v>
+      </c>
+      <c r="P59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.4975345011248067</v>
+      </c>
+      <c r="Q59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.5641237740115501</v>
+      </c>
+      <c r="R59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.6279916396582466</v>
+      </c>
+      <c r="S59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.6894467665973252</v>
+      </c>
+      <c r="T59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.7487435419566724</v>
+      </c>
+      <c r="U59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.8060945639429236</v>
+      </c>
+      <c r="V59" s="16">
+        <f t="shared" si="3"/>
+        <v>1.8616796642476359</v>
+      </c>
+      <c r="W59" s="16">
+        <f t="shared" ref="W59" si="4">SQRT(2*W58/$Q$20)</f>
+        <v>1.9156525704423026</v>
+      </c>
+      <c r="X59" s="16">
+        <f t="shared" ref="X59" si="5">SQRT(2*X58/$Q$20)</f>
+        <v>1.9681459216763408</v>
+      </c>
+      <c r="Y59" s="16">
+        <f t="shared" ref="Y59" si="6">SQRT(2*Y58/$Q$20)</f>
+        <v>2.0192751093846089</v>
+      </c>
+      <c r="Z59" s="16">
+        <f t="shared" ref="Z59" si="7">SQRT(2*Z58/$Q$20)</f>
+        <v>2.0691412628791768</v>
+      </c>
+      <c r="AA59" s="16">
+        <f t="shared" ref="AA59" si="8">SQRT(2*AA58/$Q$20)</f>
+        <v>2.1178336016123285</v>
+      </c>
+      <c r="AB59" s="16">
+        <f t="shared" ref="AB59" si="9">SQRT(2*AB58/$Q$20)</f>
+        <v>2.1654313109603032</v>
+      </c>
+      <c r="AC59" s="16">
+        <f t="shared" ref="AC59" si="10">SQRT(2*AC58/$Q$20)</f>
+        <v>2.212005054437324</v>
+      </c>
+      <c r="AD59" s="16">
+        <f t="shared" ref="AD59" si="11">SQRT(2*AD58/$Q$20)</f>
+        <v>2.2576182049286544</v>
       </c>
     </row>
   </sheetData>
